--- a/Excel/PlayerNumericConfig.xlsx
+++ b/Excel/PlayerNumericConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ET6.0\ET_EUI1\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ET6.0\ET-EUI2\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F1D2AE-2A78-4D4B-9BCB-541D5C533F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A94125A-DBEF-4F3A-96AC-77F03D70749A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="3195" windowWidth="21600" windowHeight="11385" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerNumericConfig" sheetId="7" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="C3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -513,7 +513,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
-        <v>10001</v>
+        <v>5001</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
-        <v>10002</v>
+        <v>5002</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
-        <v>10003</v>
+        <v>5003</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
-        <v>10004</v>
+        <v>5004</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
-        <v>10005</v>
+        <v>5005</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
-        <v>10006</v>
+        <v>5006</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
-        <v>10007</v>
+        <v>5007</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
-        <v>10008</v>
+        <v>5008</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
